--- a/design/B_Buff.xlsx
+++ b/design/B_Buff.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>output</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>target_sort(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现对象名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impl_name(string)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I39"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +624,7 @@
     <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -644,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -655,21 +667,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -694,8 +706,11 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -729,8 +744,11 @@
       <c r="K9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -764,8 +782,11 @@
       <c r="K10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -799,8 +820,11 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -834,8 +858,11 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -869,8 +896,11 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -904,8 +934,11 @@
       <c r="K14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -939,8 +972,11 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -974,8 +1010,11 @@
       <c r="K16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1009,8 +1048,11 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1044,8 +1086,11 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1079,8 +1124,11 @@
       <c r="K19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1114,8 +1162,11 @@
       <c r="K20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1149,8 +1200,11 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1184,8 +1238,11 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1219,8 +1276,11 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1254,8 +1314,11 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1289,8 +1352,11 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1324,8 +1390,11 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1359,8 +1428,11 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1394,8 +1466,11 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1429,8 +1504,11 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1464,8 +1542,11 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1499,8 +1580,11 @@
       <c r="K31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1534,8 +1618,11 @@
       <c r="K32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1569,8 +1656,11 @@
       <c r="K33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1604,8 +1694,11 @@
       <c r="K34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1639,8 +1732,11 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1674,8 +1770,11 @@
       <c r="K36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1709,8 +1808,11 @@
       <c r="K37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1744,8 +1846,11 @@
       <c r="K38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1779,8 +1884,11 @@
       <c r="K39" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>

--- a/design/B_Buff.xlsx
+++ b/design/B_Buff.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>output</t>
   </si>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>base_buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasting(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,11 +628,11 @@
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="21.25" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="11" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -667,21 +675,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -707,10 +715,13 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -745,10 +756,13 @@
         <v>55</v>
       </c>
       <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -783,10 +797,13 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -820,11 +837,14 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -858,11 +878,14 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -896,11 +919,14 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -934,11 +960,14 @@
       <c r="K14" s="5">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="5">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -972,11 +1001,14 @@
       <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1010,11 +1042,14 @@
       <c r="K16" s="5">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1048,11 +1083,14 @@
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="5">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1086,11 +1124,14 @@
       <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1124,11 +1165,14 @@
       <c r="K19" s="5">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1162,11 +1206,14 @@
       <c r="K20" s="5">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1200,11 +1247,14 @@
       <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="5">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1238,11 +1288,14 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="5">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1276,11 +1329,14 @@
       <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="5">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1314,11 +1370,14 @@
       <c r="K24" s="5">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="5">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1352,11 +1411,14 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="5">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1390,11 +1452,14 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="5">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1428,11 +1493,14 @@
       <c r="K27" s="5">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="5">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1466,11 +1534,14 @@
       <c r="K28" s="5">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="5">
+        <v>50</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1504,11 +1575,14 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
-      <c r="L29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="5">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1542,11 +1616,14 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-      <c r="L30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="5">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1580,11 +1657,14 @@
       <c r="K31" s="5">
         <v>1</v>
       </c>
-      <c r="L31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="5">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1618,11 +1698,14 @@
       <c r="K32" s="5">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="5">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1656,11 +1739,14 @@
       <c r="K33" s="5">
         <v>1</v>
       </c>
-      <c r="L33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="5">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1694,11 +1780,14 @@
       <c r="K34" s="5">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="5">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1732,11 +1821,14 @@
       <c r="K35" s="5">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="5">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1770,11 +1862,14 @@
       <c r="K36" s="5">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="5">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1808,11 +1903,14 @@
       <c r="K37" s="5">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L37" s="5">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1846,11 +1944,14 @@
       <c r="K38" s="5">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="5">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1884,11 +1985,14 @@
       <c r="K39" s="5">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L39" s="5">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1899,6 +2003,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2082,11 +2187,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/design/B_Buff.xlsx
+++ b/design/B_Buff.xlsx
@@ -10,7 +10,7 @@
     <sheet name="buff" sheetId="1" r:id="rId1"/>
     <sheet name="护甲配置" sheetId="2" r:id="rId2"/>
     <sheet name="魔抗配置" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="非战斗buff" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>output</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>lasting(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtype(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_type(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为强控（打断技能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stong_control(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,11 +652,13 @@
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="21.25" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -675,21 +701,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -715,13 +741,16 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -756,13 +785,16 @@
         <v>55</v>
       </c>
       <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
         <v>60</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -797,13 +829,16 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
         <v>60</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -838,13 +873,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="5">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -879,13 +917,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="5">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -920,13 +961,16 @@
         <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -961,13 +1005,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1002,13 +1049,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1043,13 +1093,16 @@
         <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>50</v>
-      </c>
-      <c r="M16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1084,13 +1137,16 @@
         <v>1</v>
       </c>
       <c r="L17" s="5">
-        <v>50</v>
-      </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1125,13 +1181,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="5">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1166,13 +1225,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="5">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -1207,13 +1269,16 @@
         <v>1</v>
       </c>
       <c r="L20" s="5">
-        <v>50</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>11</v>
       </c>
@@ -1248,13 +1313,16 @@
         <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>50</v>
-      </c>
-      <c r="M21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1289,13 +1357,16 @@
         <v>1</v>
       </c>
       <c r="L22" s="5">
-        <v>50</v>
-      </c>
-      <c r="M22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1330,13 +1401,16 @@
         <v>1</v>
       </c>
       <c r="L23" s="5">
-        <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1371,13 +1445,16 @@
         <v>1</v>
       </c>
       <c r="L24" s="5">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1412,13 +1489,16 @@
         <v>1</v>
       </c>
       <c r="L25" s="5">
-        <v>50</v>
-      </c>
-      <c r="M25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16</v>
       </c>
@@ -1453,13 +1533,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="5">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>17</v>
       </c>
@@ -1494,13 +1577,16 @@
         <v>1</v>
       </c>
       <c r="L27" s="5">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1535,13 +1621,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="5">
-        <v>50</v>
-      </c>
-      <c r="M28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>19</v>
       </c>
@@ -1576,13 +1665,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="5">
-        <v>50</v>
-      </c>
-      <c r="M29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1617,13 +1709,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="5">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21</v>
       </c>
@@ -1658,13 +1753,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="5">
-        <v>50</v>
-      </c>
-      <c r="M31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1699,13 +1797,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="5">
-        <v>50</v>
-      </c>
-      <c r="M32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23</v>
       </c>
@@ -1740,13 +1841,16 @@
         <v>1</v>
       </c>
       <c r="L33" s="5">
-        <v>50</v>
-      </c>
-      <c r="M33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>24</v>
       </c>
@@ -1781,13 +1885,16 @@
         <v>1</v>
       </c>
       <c r="L34" s="5">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>25</v>
       </c>
@@ -1822,13 +1929,16 @@
         <v>1</v>
       </c>
       <c r="L35" s="5">
-        <v>50</v>
-      </c>
-      <c r="M35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>26</v>
       </c>
@@ -1863,13 +1973,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="5">
-        <v>50</v>
-      </c>
-      <c r="M36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>50</v>
+      </c>
+      <c r="N36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1904,13 +2017,16 @@
         <v>1</v>
       </c>
       <c r="L37" s="5">
-        <v>50</v>
-      </c>
-      <c r="M37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>50</v>
+      </c>
+      <c r="N37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1945,13 +2061,16 @@
         <v>1</v>
       </c>
       <c r="L38" s="5">
-        <v>50</v>
-      </c>
-      <c r="M38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1986,13 +2105,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="5">
-        <v>50</v>
-      </c>
-      <c r="M39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2004,6 +2126,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2185,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2196,9 +2319,11 @@
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2219,7 +2344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2230,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2241,19 +2366,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
